--- a/BestPractises-SoftwaresAndTools.xlsx
+++ b/BestPractises-SoftwaresAndTools.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-savarian\source\repos\sav68\best-practices-after-new-os\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin0\Desktop\New folder (2)\best-practices-after-new-os\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EED55DC-BF84-4372-AE77-EBE3ABF9CBCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A89AAE-3C75-4544-B60E-C31A29516D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5116FFD8-FF12-4596-A8E8-EA6A71C793EA}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="112">
   <si>
     <t>Home Users</t>
   </si>
@@ -460,22 +460,6 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -503,6 +487,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -584,16 +584,16 @@
     <tableColumn id="14" xr3:uid="{475D00EE-DBF3-4509-B199-766ACE012349}" name="Platform" dataDxfId="12"/>
     <tableColumn id="12" xr3:uid="{FECD2DAB-AE55-4A73-9EA3-393E66C65DED}" name="Cost" dataDxfId="11"/>
     <tableColumn id="1" xr3:uid="{DBCCBA0F-2CC0-41FC-B36B-D32C783A1346}" name="Softwares" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{55A75063-0F04-4048-A7BC-5431239C2401}" name="Home Users" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{CB83FC61-5871-4519-895B-0CED840B1379}" name="Office Users" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{FF70DF90-2E81-4F95-9AB3-2724E7509C70}" name="Accountant Users" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{74804E52-9F80-46CE-A575-5114D5B9F303}" name=".Net Developers" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{CF1DB752-52A5-4699-9735-CDBCC0C5F30B}" name="Java Developers" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{C1CEC3D5-8BF0-40AB-9FB9-8FB6429B4D41}" name="Web Develoeprs" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{15D396CA-877E-4B01-85C0-C69A4CF9ECF6}" name="BI Developer" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{E487DF67-D708-4530-8F4D-881AEFA4F1F2}" name="Designer" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{1AA01AC2-D46F-49D6-BDE3-8A1D305E0461}" name="Network Admin" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{7CA4C263-95CB-4552-8825-A73CBBFC7E2D}" name="SysAdmin" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{55A75063-0F04-4048-A7BC-5431239C2401}" name="Home Users" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CB83FC61-5871-4519-895B-0CED840B1379}" name="Office Users" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{FF70DF90-2E81-4F95-9AB3-2724E7509C70}" name="Accountant Users" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{74804E52-9F80-46CE-A575-5114D5B9F303}" name=".Net Developers" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{CF1DB752-52A5-4699-9735-CDBCC0C5F30B}" name="Java Developers" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{C1CEC3D5-8BF0-40AB-9FB9-8FB6429B4D41}" name="Web Develoeprs" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{15D396CA-877E-4B01-85C0-C69A4CF9ECF6}" name="BI Developer" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{E487DF67-D708-4530-8F4D-881AEFA4F1F2}" name="Designer" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{1AA01AC2-D46F-49D6-BDE3-8A1D305E0461}" name="Network Admin" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{7CA4C263-95CB-4552-8825-A73CBBFC7E2D}" name="SysAdmin" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -920,9 +920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E39B217-E170-403E-8CBC-8ED6F3D0F392}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D31" sqref="D31"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,7 +1961,9 @@
         <v>52</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
